--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H2">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I2">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J2">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>71.74923511582959</v>
+        <v>76.14544620684623</v>
       </c>
       <c r="R2">
-        <v>71.74923511582959</v>
+        <v>685.309015861616</v>
       </c>
       <c r="S2">
-        <v>0.1827835308934867</v>
+        <v>0.1823509020589016</v>
       </c>
       <c r="T2">
-        <v>0.1827835308934867</v>
+        <v>0.1823509020589016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H3">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I3">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J3">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>107.1516022386386</v>
+        <v>112.4170537093544</v>
       </c>
       <c r="R3">
-        <v>107.1516022386386</v>
+        <v>1011.75348338419</v>
       </c>
       <c r="S3">
-        <v>0.2729722228600002</v>
+        <v>0.2692130937813282</v>
       </c>
       <c r="T3">
-        <v>0.2729722228600002</v>
+        <v>0.2692130937813281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H4">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I4">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J4">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>4.580865481475308</v>
+        <v>0.4353468443731112</v>
       </c>
       <c r="R4">
-        <v>4.580865481475308</v>
+        <v>3.918121599358</v>
       </c>
       <c r="S4">
-        <v>0.01166990513418615</v>
+        <v>0.001042555973265746</v>
       </c>
       <c r="T4">
-        <v>0.01166990513418615</v>
+        <v>0.001042555973265746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.08530406217165</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H5">
-        <v>9.08530406217165</v>
+        <v>29.137298</v>
       </c>
       <c r="I5">
-        <v>0.4430564614259928</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J5">
-        <v>0.4430564614259928</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>68.00859477010491</v>
+        <v>4.718510225507778</v>
       </c>
       <c r="R5">
-        <v>68.00859477010491</v>
+        <v>42.46659202956999</v>
       </c>
       <c r="S5">
-        <v>0.1732541268644346</v>
+        <v>0.01129975118483361</v>
       </c>
       <c r="T5">
-        <v>0.1732541268644346</v>
+        <v>0.01129975118483361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H6">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J6">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>101.5652624568161</v>
+        <v>71.53923086691999</v>
       </c>
       <c r="R6">
-        <v>101.5652624568161</v>
+        <v>643.8530778022799</v>
       </c>
       <c r="S6">
-        <v>0.2587408389512539</v>
+        <v>0.1713200714031666</v>
       </c>
       <c r="T6">
-        <v>0.2587408389512539</v>
+        <v>0.1713200714031666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H7">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J7">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>4.342042444397891</v>
+        <v>105.616684375925</v>
       </c>
       <c r="R7">
-        <v>4.342042444397891</v>
+        <v>950.5501593833249</v>
       </c>
       <c r="S7">
-        <v>0.01106149561030419</v>
+        <v>0.2529277668963035</v>
       </c>
       <c r="T7">
-        <v>0.01106149561030419</v>
+        <v>0.2529277668963035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.274644341744623</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H8">
-        <v>0.274644341744623</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J8">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.48556067080587</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N8">
-        <v>7.48556067080587</v>
+        <v>0.134471</v>
       </c>
       <c r="O8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q8">
-        <v>2.055866883022917</v>
+        <v>0.409011700085</v>
       </c>
       <c r="R8">
-        <v>2.055866883022917</v>
+        <v>3.681105300765</v>
       </c>
       <c r="S8">
-        <v>0.00523738834733598</v>
+        <v>0.0009794893349306928</v>
       </c>
       <c r="T8">
-        <v>0.00523738834733598</v>
+        <v>0.0009794893349306926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.274644341744623</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H9">
-        <v>0.274644341744623</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J9">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1790713620364</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N9">
-        <v>11.1790713620364</v>
+        <v>1.457465</v>
       </c>
       <c r="O9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q9">
-        <v>3.070268695542653</v>
+        <v>4.433076555274999</v>
       </c>
       <c r="R9">
-        <v>3.070268695542653</v>
+        <v>39.89768899747499</v>
       </c>
       <c r="S9">
-        <v>0.007821610252110027</v>
+        <v>0.0106162029250527</v>
       </c>
       <c r="T9">
-        <v>0.007821610252110027</v>
+        <v>0.0106162029250527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H10">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I10">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J10">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4779193315584</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N10">
-        <v>0.4779193315584</v>
+        <v>23.519992</v>
       </c>
       <c r="O10">
-        <v>0.02496633403043571</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P10">
-        <v>0.02496633403043571</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q10">
-        <v>0.131257840222887</v>
+        <v>2.494561711509334</v>
       </c>
       <c r="R10">
-        <v>0.131257840222887</v>
+        <v>22.451055403584</v>
       </c>
       <c r="S10">
-        <v>0.0003343836551659524</v>
+        <v>0.005973903903585318</v>
       </c>
       <c r="T10">
-        <v>0.0003343836551659524</v>
+        <v>0.005973903903585317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.319477951252761</v>
+        <v>0.318184</v>
       </c>
       <c r="H11">
-        <v>0.319477951252761</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I11">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J11">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.48556067080587</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N11">
-        <v>7.48556067080587</v>
+        <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.3910429977859032</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P11">
-        <v>0.3910429977859032</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q11">
-        <v>2.391471587087303</v>
+        <v>3.682837147506667</v>
       </c>
       <c r="R11">
-        <v>2.391471587087303</v>
+        <v>33.14553432756</v>
       </c>
       <c r="S11">
-        <v>0.006092352343737086</v>
+        <v>0.008819551390631841</v>
       </c>
       <c r="T11">
-        <v>0.006092352343737086</v>
+        <v>0.008819551390631843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.319477951252761</v>
+        <v>0.318184</v>
       </c>
       <c r="H12">
-        <v>0.319477951252761</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I12">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J12">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.1790713620364</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N12">
-        <v>11.1790713620364</v>
+        <v>0.134471</v>
       </c>
       <c r="O12">
-        <v>0.583990668183661</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P12">
-        <v>0.583990668183661</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q12">
-        <v>3.571466815651802</v>
+        <v>0.01426217355466667</v>
       </c>
       <c r="R12">
-        <v>3.571466815651802</v>
+        <v>0.128359561992</v>
       </c>
       <c r="S12">
-        <v>0.009098428909797941</v>
+        <v>3.415463882041376E-05</v>
       </c>
       <c r="T12">
-        <v>0.009098428909797941</v>
+        <v>3.415463882041376E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.319477951252761</v>
+        <v>0.318184</v>
       </c>
       <c r="H13">
-        <v>0.319477951252761</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I13">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J13">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4779193315584</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N13">
-        <v>0.4779193315584</v>
+        <v>1.457465</v>
       </c>
       <c r="O13">
-        <v>0.02496633403043571</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P13">
-        <v>0.02496633403043571</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q13">
-        <v>0.1526846889103667</v>
+        <v>0.1545806811866667</v>
       </c>
       <c r="R13">
-        <v>0.1526846889103667</v>
+        <v>1.39122613068</v>
       </c>
       <c r="S13">
-        <v>0.0003889692553147954</v>
+        <v>0.0003701853237381617</v>
       </c>
       <c r="T13">
-        <v>0.0003889692553147954</v>
+        <v>0.0003701853237381617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.24152897667064</v>
+        <v>0.353022</v>
       </c>
       <c r="H14">
-        <v>1.24152897667064</v>
+        <v>1.059066</v>
       </c>
       <c r="I14">
-        <v>0.06054474692287248</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J14">
-        <v>0.06054474692287248</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N14">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O14">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P14">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q14">
-        <v>9.293540479431602</v>
+        <v>2.767691538608</v>
       </c>
       <c r="R14">
-        <v>9.293540479431602</v>
+        <v>24.909223847472</v>
       </c>
       <c r="S14">
-        <v>0.0236755993369089</v>
+        <v>0.006627987277334799</v>
       </c>
       <c r="T14">
-        <v>0.0236755993369089</v>
+        <v>0.006627987277334798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.24152897667064</v>
+        <v>0.353022</v>
       </c>
       <c r="H15">
-        <v>1.24152897667064</v>
+        <v>1.059066</v>
       </c>
       <c r="I15">
-        <v>0.06054474692287248</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J15">
-        <v>0.06054474692287248</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N15">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O15">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P15">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q15">
-        <v>13.87914102823711</v>
+        <v>4.08607137847</v>
       </c>
       <c r="R15">
-        <v>13.87914102823711</v>
+        <v>36.77464240623</v>
       </c>
       <c r="S15">
-        <v>0.03535756721049895</v>
+        <v>0.009785205010382778</v>
       </c>
       <c r="T15">
-        <v>0.03535756721049895</v>
+        <v>0.009785205010382778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.353022</v>
+      </c>
+      <c r="H16">
+        <v>1.059066</v>
+      </c>
+      <c r="I16">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J16">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.134471</v>
+      </c>
+      <c r="O16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q16">
+        <v>0.015823740454</v>
+      </c>
+      <c r="R16">
+        <v>0.142413664086</v>
+      </c>
+      <c r="S16">
+        <v>3.789423385732818E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.789423385732817E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.353022</v>
+      </c>
+      <c r="H17">
+        <v>1.059066</v>
+      </c>
+      <c r="I17">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J17">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.457465</v>
+      </c>
+      <c r="O17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q17">
+        <v>0.17150573641</v>
+      </c>
+      <c r="R17">
+        <v>1.54355162769</v>
+      </c>
+      <c r="S17">
+        <v>0.0004107169542047788</v>
+      </c>
+      <c r="T17">
+        <v>0.0004107169542047787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.24152897667064</v>
-      </c>
-      <c r="H16">
-        <v>1.24152897667064</v>
-      </c>
-      <c r="I16">
-        <v>0.06054474692287248</v>
-      </c>
-      <c r="J16">
-        <v>0.06054474692287248</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="N16">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="O16">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="P16">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="Q16">
-        <v>0.5933506986408167</v>
-      </c>
-      <c r="R16">
-        <v>0.5933506986408167</v>
-      </c>
-      <c r="S16">
-        <v>0.001511580375464629</v>
-      </c>
-      <c r="T16">
-        <v>0.001511580375464629</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.427651</v>
+      </c>
+      <c r="H18">
+        <v>4.282953</v>
+      </c>
+      <c r="I18">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J18">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N18">
+        <v>23.519992</v>
+      </c>
+      <c r="O18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q18">
+        <v>11.19278003293067</v>
+      </c>
+      <c r="R18">
+        <v>100.735020296376</v>
+      </c>
+      <c r="S18">
+        <v>0.0268041444002762</v>
+      </c>
+      <c r="T18">
+        <v>0.02680414440027619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.427651</v>
+      </c>
+      <c r="H19">
+        <v>4.282953</v>
+      </c>
+      <c r="I19">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J19">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N19">
+        <v>34.723655</v>
+      </c>
+      <c r="O19">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P19">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q19">
+        <v>16.52442026146833</v>
+      </c>
+      <c r="R19">
+        <v>148.719782353215</v>
+      </c>
+      <c r="S19">
+        <v>0.03957220150097723</v>
+      </c>
+      <c r="T19">
+        <v>0.03957220150097723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.427651</v>
+      </c>
+      <c r="H20">
+        <v>4.282953</v>
+      </c>
+      <c r="I20">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J20">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.134471</v>
+      </c>
+      <c r="O20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q20">
+        <v>0.06399255254033334</v>
+      </c>
+      <c r="R20">
+        <v>0.575932972863</v>
+      </c>
+      <c r="S20">
+        <v>0.0001532475054264279</v>
+      </c>
+      <c r="T20">
+        <v>0.0001532475054264279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.427651</v>
+      </c>
+      <c r="H21">
+        <v>4.282953</v>
+      </c>
+      <c r="I21">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J21">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.457465</v>
+      </c>
+      <c r="O21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q21">
+        <v>0.6935837882383333</v>
+      </c>
+      <c r="R21">
+        <v>6.242254094145</v>
+      </c>
+      <c r="S21">
+        <v>0.001660974302982269</v>
+      </c>
+      <c r="T21">
+        <v>0.001660974302982269</v>
       </c>
     </row>
   </sheetData>
